--- a/test/fixture/v1-correct.xlsx
+++ b/test/fixture/v1-correct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18918" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18918" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>Titre</t>
   </si>
@@ -216,6 +216,66 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>mlle</t>
+  </si>
+  <si>
+    <t>Melle.</t>
+  </si>
+  <si>
+    <t>mlle.</t>
+  </si>
+  <si>
+    <t>madame</t>
+  </si>
+  <si>
+    <t>ABRAHAM2</t>
+  </si>
+  <si>
+    <t>AGUILAR2</t>
+  </si>
+  <si>
+    <t>AININE2</t>
+  </si>
+  <si>
+    <t>AZOULAY2</t>
+  </si>
+  <si>
+    <t>BARBOSA2</t>
+  </si>
+  <si>
+    <t>Emilie2</t>
+  </si>
+  <si>
+    <t>Nelly2</t>
+  </si>
+  <si>
+    <t>Lila2</t>
+  </si>
+  <si>
+    <t>Raphaël2</t>
+  </si>
+  <si>
+    <t>Rachel2</t>
+  </si>
+  <si>
+    <t>bouche à oreille</t>
+  </si>
+  <si>
+    <t>annuaire</t>
+  </si>
+  <si>
+    <t>pagesjaunes.fr</t>
+  </si>
+  <si>
+    <t>ecolededanceribas</t>
+  </si>
+  <si>
+    <t>yahoo</t>
   </si>
 </sst>
 </file>
@@ -296,7 +356,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +368,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -650,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -970,12 +1033,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.3671875" customWidth="1"/>
+    <col min="3" max="3" width="16.83984375" customWidth="1"/>
+    <col min="6" max="6" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>69100</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2012</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1991</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>69100</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2009</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2">
+        <v>69009</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2011</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2011</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1986</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2">
+        <v>69007</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2011</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2">
+        <v>69007</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2012</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M4" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="M5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
